--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mes docs\Documents\Mes documents\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072740B9-4C97-4B25-877C-F34300423174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8866D-7CDA-44AC-A20E-0FB9414A2806}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Ce tableur permet la saisie de la configuration du tsume qui sera résolu par le programme TsumeLi</t>
   </si>
@@ -64,19 +64,45 @@
   </si>
   <si>
     <t>-P</t>
+  </si>
+  <si>
+    <t>Evaluation function</t>
+  </si>
+  <si>
+    <t>Raw value one side</t>
+  </si>
+  <si>
+    <t>Raw value both sides</t>
+  </si>
+  <si>
+    <t>Ponderated value both sides</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Min-Max</t>
+  </si>
+  <si>
+    <t>Alpha-Beta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,14 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,6 +166,427 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$B$26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$26" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="absolute">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Option Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Option Button 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Group Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Option Button 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Option Button 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C56AFD-CC19-4907-91F6-E40EE6A69B8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Option Button 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACFD5B8-BFCA-4D3C-BDFF-7B50286A075C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,157 +851,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -561,7 +1014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -569,10 +1022,201 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Option Button 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor>
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId5" name="Option Button 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>514350</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId6" name="Group Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId7" name="Option Button 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId8" name="Option Button 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId9" name="Option Button 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mes docs\Documents\Mes documents\home\quicklisp\local-projects\TsumeLi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF8866D-7CDA-44AC-A20E-0FB9414A2806}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA89B6B-0634-4BFF-B3BC-E8C5B4259679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5708" yWindow="3173" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Ce tableur permet la saisie de la configuration du tsume qui sera résolu par le programme TsumeLi</t>
   </si>
@@ -48,21 +48,6 @@
     <t>-L</t>
   </si>
   <si>
-    <t>-B</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>+L</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>-P</t>
   </si>
   <si>
@@ -85,24 +70,31 @@
   </si>
   <si>
     <t>Alpha-Beta</t>
+  </si>
+  <si>
+    <t>-N</t>
+  </si>
+  <si>
+    <t>-S</t>
+  </si>
+  <si>
+    <t>-G</t>
+  </si>
+  <si>
+    <t>+B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,11 +161,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$B$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$B$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +467,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C56AFD-CC19-4907-91F6-E40EE6A69B8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -542,7 +534,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACFD5B8-BFCA-4D3C-BDFF-7B50286A075C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -856,17 +848,17 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -880,77 +872,87 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -960,7 +962,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -969,11 +971,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -984,7 +984,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -995,7 +995,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1006,64 +1006,61 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="H19" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA89B6B-0634-4BFF-B3BC-E8C5B4259679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC045911-8E46-4598-B4D6-56DD987CA55E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5708" yWindow="3173" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3173" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC045911-8E46-4598-B4D6-56DD987CA55E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC260A0-FF29-43CE-8C24-2748F49C602F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3173" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +96,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,16 +125,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -132,16 +143,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,11 +187,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$A$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,7 +199,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="GBox" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -193,13 +215,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>4</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>4</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -311,63 +333,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="Group Box 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1034"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:noFill/>
-                </a14:hiddenFill>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -569,6 +534,120 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>14288</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>166688</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>119063</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Group Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>171452</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>109540</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Group Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:noFill/>
+                </a14:hiddenFill>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -845,35 +924,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D19"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.86328125" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="3" max="14" width="9.1328125" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -894,175 +975,279 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="H19" s="4" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="H19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="J20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45"/>
+    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
@@ -1073,6 +1258,11 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Saisie invalide" error="Veuillez saisir un nombre entier supérieur ou égal à 1." promptTitle="Nombre de tours" prompt="Saisissez le nombre de tours nécessaires pour résoudre le tsume, minimum 1." sqref="B17" xr:uid="{097A0F48-440C-4954-955D-98055A9A0AC2}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1089,13 +1279,13 @@
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1126,29 +1316,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId6" name="Group Box 10">
-              <controlPr defaultSize="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>20</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId7" name="Option Button 18">
+            <control shapeId="1042" r:id="rId6" name="Option Button 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1170,7 +1338,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId8" name="Option Button 19">
+            <control shapeId="1043" r:id="rId7" name="Option Button 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1192,7 +1360,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId9" name="Option Button 21">
+            <control shapeId="1045" r:id="rId8" name="Option Button 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1212,6 +1380,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId9" name="Group Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>14288</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>166688</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>119063</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId10" name="Group Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>647700</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>109538</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC260A0-FF29-43CE-8C24-2748F49C602F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ADC775-0D67-40EF-92B8-74E65F555FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="2408" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Ce tableur permet la saisie de la configuration du tsume qui sera résolu par le programme TsumeLi</t>
   </si>
@@ -81,25 +81,29 @@
     <t>-G</t>
   </si>
   <si>
-    <t>+B</t>
+    <t>+P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>-B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -215,13 +219,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>4</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>4</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -607,13 +611,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>171452</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>109540</xdr:rowOff>
+          <xdr:rowOff>109538</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -927,7 +931,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -975,7 +979,9 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1004,12 +1010,12 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
       <c r="K5" s="4"/>
@@ -1020,13 +1026,13 @@
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
@@ -1037,15 +1043,17 @@
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="4"/>
@@ -1055,14 +1063,12 @@
     </row>
     <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1075,11 +1081,11 @@
     </row>
     <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1194,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45"/>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ADC775-0D67-40EF-92B8-74E65F555FCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF49E73-B237-4020-8211-FD88E683E7EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="2408" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,11 +195,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,7 +931,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -1246,7 +1246,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>2</v>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF49E73-B237-4020-8211-FD88E683E7EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82465D03-4A5D-458B-918C-AA3A6E2A70A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2408" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7808" yWindow="1950" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Ce tableur permet la saisie de la configuration du tsume qui sera résolu par le programme TsumeLi</t>
-  </si>
-  <si>
-    <t>Enemy hand</t>
   </si>
   <si>
     <t>Ally hand</t>
@@ -39,16 +36,7 @@
     <t>Number of turn</t>
   </si>
   <si>
-    <t>-R</t>
-  </si>
-  <si>
     <t>-J</t>
-  </si>
-  <si>
-    <t>-L</t>
-  </si>
-  <si>
-    <t>-P</t>
   </si>
   <si>
     <t>Evaluation function</t>
@@ -72,25 +60,13 @@
     <t>Alpha-Beta</t>
   </si>
   <si>
-    <t>-N</t>
-  </si>
-  <si>
     <t>-S</t>
   </si>
   <si>
-    <t>-G</t>
+    <t>+R</t>
   </si>
   <si>
-    <t>+P</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>-B</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -147,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -165,6 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,10 +905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -958,30 +935,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1011,11 +972,11 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
       <c r="K5" s="4"/>
@@ -1030,10 +991,10 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
       <c r="K6" s="4"/>
@@ -1048,12 +1009,8 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="4"/>
@@ -1064,11 +1021,11 @@
     <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1083,9 +1040,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1178,10 +1133,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1197,45 +1156,45 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
         <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="H19" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1254,6 +1213,12 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82465D03-4A5D-458B-918C-AA3A6E2A70A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBCAB60-6B26-4D90-8B8C-0DD58FEADB7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7808" yWindow="1950" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Ce tableur permet la saisie de la configuration du tsume qui sera résolu par le programme TsumeLi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ally hand</t>
   </si>
@@ -60,23 +57,32 @@
     <t>Alpha-Beta</t>
   </si>
   <si>
-    <t>-S</t>
+    <t>G</t>
   </si>
   <si>
-    <t>+R</t>
+    <t>Depth</t>
   </si>
   <si>
-    <t>N</t>
+    <t xml:space="preserve">This spreadsheet allows you to enter the configuration of the tsume which will be solved by the TsumeLi program </t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,15 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -141,7 +147,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -921,7 +935,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -935,7 +949,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -968,17 +982,17 @@
     </row>
     <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="12"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -986,17 +1000,15 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1004,15 +1016,15 @@
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1020,17 +1032,15 @@
     </row>
     <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1038,15 +1048,15 @@
     </row>
     <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1054,15 +1064,15 @@
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1070,15 +1080,17 @@
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1086,15 +1098,15 @@
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1102,15 +1114,15 @@
     </row>
     <row r="13" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="N13" s="4"/>
@@ -1133,75 +1145,80 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>4</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="H19" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
@@ -1219,6 +1236,18 @@
     <row r="37" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="38" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="41" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="42" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="43" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="44" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="45" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="46" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="47" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="48" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
@@ -1229,9 +1258,18 @@
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Saisie invalide" error="Veuillez saisir un nombre entier supérieur ou égal à 1." promptTitle="Nombre de tours" prompt="Saisissez le nombre de tours nécessaires pour résoudre le tsume, minimum 1." sqref="B17" xr:uid="{097A0F48-440C-4954-955D-98055A9A0AC2}">
       <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" promptTitle="Depth" prompt="Must be a strictly positive integer" sqref="B24" xr:uid="{19B03E8A-F3C4-44E4-91C4-6926A10852A0}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown piece" sqref="B5:E13 G5:J13 F5:F7 F9:F13 F8" xr:uid="{B481758C-A56A-4C53-B8A6-BEDD0E8E3747}">
+      <formula1>"P,L,N,S,G,R,B,+P,+L,+N,+S,+R,+B,-P,-L,-N,-S,-G,-R,-B,-+P,-+L,-+N,-+S,-+R,-+B,-J"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="B15:N15" xr:uid="{E1955E26-F72D-4FD2-BC5D-C90C251FE724}">
+      <formula1>"P,L,N,S,G,R,B,+P,+L,+N,+S,+R,+B,-P,-L,-N,-S,-G,-R,-B,-+P,-+L,-+N,-+S,-+R,-+B,-J"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tsume-configuration.xlsx
+++ b/tsume-configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Cours\home\quicklisp\local-projects\TsumeLi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBCAB60-6B26-4D90-8B8C-0DD58FEADB7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E9FE9-520B-4A5C-8048-5AA9405B67D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Ally hand</t>
   </si>
@@ -57,16 +57,19 @@
     <t>Alpha-Beta</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Depth</t>
   </si>
   <si>
     <t xml:space="preserve">This spreadsheet allows you to enter the configuration of the tsume which will be solved by the TsumeLi program </t>
   </si>
   <si>
-    <t>R</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>+R</t>
+  </si>
+  <si>
+    <t>-S</t>
   </si>
 </sst>
 </file>
@@ -138,6 +141,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -146,15 +158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,8 +924,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -934,18 +937,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
@@ -982,17 +985,17 @@
     </row>
     <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1000,15 +1003,17 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1016,15 +1021,15 @@
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1032,15 +1037,17 @@
     </row>
     <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1048,15 +1055,15 @@
     </row>
     <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1064,15 +1071,15 @@
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1080,17 +1087,15 @@
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1098,15 +1103,15 @@
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1114,15 +1119,15 @@
     </row>
     <row r="13" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="N13" s="4"/>
@@ -1147,21 +1152,23 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -1169,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45"/>
@@ -1177,46 +1184,46 @@
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="H19" s="10" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="H19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="J20" s="9" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="J20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45"/>
